--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="328">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -257,6 +257,10 @@
     <t>The Person resource does justice to person registries that keep track of persons regardless of their role. The Person resource is also a primary resource to point to for people acting in a particular role such as SubjectofCare, Practitioner, and Agent. Very few attributes are specific to any role and so Person is kept lean. Most attributes are expected to be tied to the role the Person plays rather than the Person himself. Examples of that are Guardian (SubjectofCare), ContactParty (SubjectOfCare, Practitioner), and multipleBirthInd (SubjectofCare).</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
   </si>
   <si>
@@ -892,7 +896,7 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of person's addresses for contacting, billing or reporting requirements and also to help with identification.</t>
@@ -1152,10 +1156,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1592,10 +1596,10 @@
         <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1606,10 +1610,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1620,7 +1624,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1629,19 +1633,19 @@
         <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1691,13 +1695,13 @@
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1717,10 +1721,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1731,7 +1735,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1740,16 +1744,16 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1800,19 +1804,19 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1826,10 +1830,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1840,28 +1844,28 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1911,19 +1915,19 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1937,10 +1941,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1951,7 +1955,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1963,16 +1967,16 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1998,13 +2002,13 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>73</v>
@@ -2022,19 +2026,19 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>73</v>
@@ -2048,21 +2052,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>73</v>
@@ -2074,16 +2078,16 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2133,22 +2137,22 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -2159,14 +2163,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2185,16 +2189,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2244,7 +2248,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>74</v>
@@ -2259,7 +2263,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -2270,14 +2274,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2296,16 +2300,16 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2355,7 +2359,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -2367,10 +2371,10 @@
         <v>73</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2381,14 +2385,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2401,25 +2405,25 @@
         <v>73</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>73</v>
@@ -2468,7 +2472,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2480,10 +2484,10 @@
         <v>73</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2494,10 +2498,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2520,17 +2524,17 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2567,17 +2571,17 @@
         <v>73</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -2589,30 +2593,30 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2631,17 +2635,17 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2690,7 +2694,7 @@
         <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2702,24 +2706,24 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2730,7 +2734,7 @@
         <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2742,13 +2746,13 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2799,13 +2803,13 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2814,7 +2818,7 @@
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>73</v>
@@ -2825,14 +2829,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2851,16 +2855,16 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2898,19 +2902,19 @@
         <v>73</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
@@ -2922,10 +2926,10 @@
         <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>73</v>
@@ -2936,10 +2940,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2950,31 +2954,31 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
@@ -2999,13 +3003,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3023,36 +3027,36 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3063,7 +3067,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -3072,22 +3076,22 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -3112,13 +3116,13 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -3136,36 +3140,36 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3173,10 +3177,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -3185,35 +3189,35 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>73</v>
@@ -3249,47 +3253,47 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -3298,19 +3302,19 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3324,7 +3328,7 @@
         <v>73</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>73</v>
@@ -3360,36 +3364,36 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3400,7 +3404,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3409,16 +3413,16 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3469,36 +3473,36 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3509,7 +3513,7 @@
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -3518,19 +3522,19 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3580,42 +3584,42 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3634,17 +3638,17 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3693,7 +3697,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3705,24 +3709,24 @@
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3733,7 +3737,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3745,13 +3749,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3802,13 +3806,13 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
@@ -3817,7 +3821,7 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
@@ -3828,14 +3832,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3854,16 +3858,16 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3901,19 +3905,19 @@
         <v>73</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -3925,10 +3929,10 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>73</v>
@@ -3939,10 +3943,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3953,31 +3957,31 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>73</v>
@@ -4002,13 +4006,13 @@
         <v>73</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>73</v>
@@ -4026,36 +4030,36 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4066,7 +4070,7 @@
         <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>73</v>
@@ -4075,22 +4079,22 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>73</v>
@@ -4115,13 +4119,13 @@
         <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>73</v>
@@ -4139,36 +4143,36 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4176,10 +4180,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>73</v>
@@ -4188,35 +4192,35 @@
         <v>73</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>73</v>
@@ -4252,36 +4256,36 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4289,10 +4293,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -4301,19 +4305,19 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4327,7 +4331,7 @@
         <v>73</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>73</v>
@@ -4363,36 +4367,36 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4403,7 +4407,7 @@
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
@@ -4412,16 +4416,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4472,36 +4476,36 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4512,7 +4516,7 @@
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4521,19 +4525,19 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4583,36 +4587,36 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4635,19 +4639,19 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
@@ -4696,7 +4700,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4705,27 +4709,27 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4745,22 +4749,22 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -4809,7 +4813,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4821,24 +4825,24 @@
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4849,7 +4853,7 @@
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4858,22 +4862,22 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -4898,13 +4902,13 @@
         <v>73</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>73</v>
@@ -4922,36 +4926,36 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4962,7 +4966,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>73</v>
@@ -4971,22 +4975,22 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5035,36 +5039,36 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5087,19 +5091,19 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5148,7 +5152,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5157,27 +5161,27 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5188,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -5200,13 +5204,13 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5257,36 +5261,36 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5297,7 +5301,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
@@ -5306,20 +5310,20 @@
         <v>73</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5368,22 +5372,22 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5394,10 +5398,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5408,29 +5412,29 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5479,25 +5483,25 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>73</v>
@@ -5505,10 +5509,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5531,13 +5535,13 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5588,7 +5592,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5600,10 +5604,10 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5614,10 +5618,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5628,7 +5632,7 @@
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -5640,13 +5644,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5697,13 +5701,13 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
@@ -5712,7 +5716,7 @@
         <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>73</v>
@@ -5723,14 +5727,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5749,16 +5753,16 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5808,7 +5812,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5820,10 +5824,10 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>73</v>
@@ -5834,14 +5838,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5854,25 +5858,25 @@
         <v>73</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -5921,7 +5925,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -5933,10 +5937,10 @@
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>73</v>
@@ -5947,10 +5951,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5958,10 +5962,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -5973,13 +5977,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6030,22 +6034,22 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6056,10 +6060,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6070,7 +6074,7 @@
         <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6082,13 +6086,13 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6115,13 +6119,13 @@
         <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>73</v>
@@ -6139,22 +6143,22 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="327">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -784,26 +784,22 @@
 </t>
   </si>
   <si>
-    <t>Norwegian human name</t>
-  </si>
-  <si>
-    <t>Defines the format of norwegian human name according to norwegian legislation (lov om personnavn).</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the person</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
   </si>
   <si>
     <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Person.telecom</t>
@@ -896,16 +892,16 @@
     <t>http://hl7.no/fhir/StructureDefinition/no-basis-Address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Person may have multiple addresses with different uses or applicable periods.</t>
   </si>
   <si>
     <t>May need to keep track of person's addresses for contacting, billing or reporting requirements and also to help with identification.</t>
   </si>
   <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>XAD</t>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>PID-11</t>
   </si>
   <si>
     <t>Person.photo</t>
@@ -4636,7 +4632,7 @@
         <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>246</v>
@@ -4709,27 +4705,27 @@
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4752,19 +4748,19 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -4813,7 +4809,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4828,21 +4824,21 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4868,16 +4864,16 @@
         <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -4905,11 +4901,11 @@
         <v>174</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4926,7 +4922,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -4941,21 +4937,21 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4978,19 +4974,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>73</v>
@@ -5039,7 +5035,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5054,21 +5050,21 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5091,19 +5087,19 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5152,7 +5148,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5161,27 +5157,27 @@
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5204,13 +5200,13 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5261,7 +5257,7 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5276,21 +5272,21 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5316,14 +5312,14 @@
         <v>221</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5372,7 +5368,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5387,7 +5383,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>73</v>
@@ -5398,10 +5394,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5424,17 +5420,17 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -5483,7 +5479,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5498,10 +5494,10 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>73</v>
@@ -5509,10 +5505,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5535,13 +5531,13 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5592,7 +5588,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5607,7 +5603,7 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>73</v>
@@ -5618,10 +5614,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5727,10 +5723,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5838,14 +5834,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5867,10 +5863,10 @@
         <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>132</v>
@@ -5925,7 +5921,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -5951,10 +5947,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5977,13 +5973,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6034,7 +6030,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>83</v>
@@ -6049,7 +6045,7 @@
         <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>73</v>
@@ -6060,10 +6056,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6089,10 +6085,10 @@
         <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6122,11 +6118,11 @@
         <v>174</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6143,7 +6139,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6158,7 +6154,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>73</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -350,7 +350,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -603,7 +603,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -703,7 +703,7 @@
     <t>Person.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1002,7 +1002,7 @@
     <t>Person.link.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|Person|4.0.1)
 </t>
   </si>
   <si>
@@ -1334,17 +1334,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.30859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.80078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.69140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1353,25 +1353,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="102.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.4140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.8671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Person.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Person</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Person</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -780,7 +780,7 @@
     <t>Person.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://hl7.no/fhir/StructureDefinition/no-basis-HumanName}
+    <t xml:space="preserve">HumanName {http://hl7.no/fhir/ig/StructureDefinition/no-basis-HumanName}
 </t>
   </si>
   <si>
@@ -882,7 +882,7 @@
     <t>Person.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.98046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
